--- a/output.xlsx
+++ b/output.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuld1\Desktop\Work\Digikey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuld1\Desktop\Work\WordExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>TT</t>
   </si>
@@ -36,154 +36,40 @@
     <t>I</t>
   </si>
   <si>
-    <t>Súng BV3M</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Cơ khí súng</t>
-  </si>
-  <si>
-    <t>Đã gia công 1 phần</t>
-  </si>
-  <si>
-    <t>Thêm yêu cầu mô phỏng nhiệt TCV Thêm phần gá bộ thu VNES</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>Mạch Main Gun</t>
-  </si>
-  <si>
-    <t>Hoàn thành BOM</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>Mạch sạc pin</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Mạch connector nguồn súng</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
-    <t>Mạch connector nguồn pin</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>Mạch LoRa</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>Mạch connector type C</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
-    <t>Mạch Switch</t>
-  </si>
-  <si>
-    <t>Hoàn thành BOM Chưa vẽ xong</t>
-  </si>
-  <si>
-    <t>1 8 anten Cơ cấu gá 8 anten dây, connector kết nối anten</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>VTLR BV3M</t>
-  </si>
-  <si>
-    <t>Cần trả VTLR VNES mua trước</t>
-  </si>
-  <si>
     <t>II</t>
   </si>
   <si>
-    <t>Sky Patrol</t>
-  </si>
-  <si>
-    <t>Cơ khí Sky Patrol</t>
-  </si>
-  <si>
-    <t>Chưa vẽ xong</t>
-  </si>
-  <si>
-    <t>Mạch Main Sky Patrol</t>
-  </si>
-  <si>
-    <t>Mạch Rx Sky Patrol</t>
-  </si>
-  <si>
-    <t>Mạch connector type C Sky Patrol</t>
-  </si>
-  <si>
-    <t>Mạch Led Sky Patrol</t>
-  </si>
-  <si>
-    <t>VTLR Patrol</t>
-  </si>
-  <si>
     <t>III</t>
   </si>
   <si>
-    <t>Sky Shield</t>
-  </si>
-  <si>
-    <t>Cơ khí Sky Shield</t>
-  </si>
-  <si>
-    <t>Thêm cơ khí module LoRa</t>
-  </si>
-  <si>
-    <t>Mạch Main Sky Shield</t>
-  </si>
-  <si>
-    <t>Mạch connector type C Sky Shield</t>
-  </si>
-  <si>
-    <t>Mạch Led Sky Shield</t>
-  </si>
-  <si>
-    <t>Hoàn thành BOM, Chưa vẽ xong</t>
-  </si>
-  <si>
-    <t>VTLR Shield</t>
-  </si>
-  <si>
-    <t>Chưa có</t>
-  </si>
-  <si>
     <t>IV</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Đã mua</t>
-  </si>
-  <si>
-    <t>Cần trả VNES mua trước</t>
-  </si>
-  <si>
-    <t>Jammer</t>
   </si>
 </sst>
 </file>
@@ -547,7 +433,7 @@
   <dimension ref="A2:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,354 +461,234 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="2"/>
     </row>
   </sheetData>
